--- a/CashFlow/QRVO_cashflow.xlsx
+++ b/CashFlow/QRVO_cashflow.xlsx
@@ -558,19 +558,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1997000000.0</v>
+        <v>4240000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1998000000.0</v>
+        <v>10222000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1556503000.0</v>
+        <v>-3562000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1038874000.0</v>
+        <v>10252000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>474810000.0</v>
+        <v>-2201000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1728000.0</v>
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>743702000.0</v>
+        <v>282597000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>680702000.0</v>
+        <v>309154000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>426937000.0</v>
+        <v>245830000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>208501000.0</v>
+        <v>288723000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>255877000.0</v>
+        <v>62801000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-16913000.0</v>
